--- a/medicine/Mort/Peine_de_mort_au_Vermont/Peine_de_mort_au_Vermont.xlsx
+++ b/medicine/Mort/Peine_de_mort_au_Vermont/Peine_de_mort_au_Vermont.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Au Vermont, la pendaison fut la méthode employée pour la mise à mort des condamnés jusqu'en 1919, date à laquelle la potence fut remplacée par la chaise électrique. Celle-ci fut en usage dans l'État jusqu'à l'exécution de Donald DeMag (en), pour meurtre, en 1954.
-Le Vermont abolira la peine de mort en 1965, la même année que deux autres États : l'Iowa et la Virginie-Occidentale. Cependant en 2005, Donald Fell a été condamné à mort par un tribunal fédéral du Vermont pour le meurtre d'une jeune femme à New York, concomitant à un acte de piraterie routière dans le Vermont[1]. En septembre 2018 sa peine a cependant été réduite en appel[2].
-Selon un sondage fait en 2008, 66 % des habitants du Vermont souhaitent le rétablissement de la peine de mort dans leur État[3].
-Le Vermont est communément considéré comme abolitionniste même si en fait la peine de mort est toujours prévue pour trahison[4].
+Le Vermont abolira la peine de mort en 1965, la même année que deux autres États : l'Iowa et la Virginie-Occidentale. Cependant en 2005, Donald Fell a été condamné à mort par un tribunal fédéral du Vermont pour le meurtre d'une jeune femme à New York, concomitant à un acte de piraterie routière dans le Vermont. En septembre 2018 sa peine a cependant été réduite en appel.
+Selon un sondage fait en 2008, 66 % des habitants du Vermont souhaitent le rétablissement de la peine de mort dans leur État.
+Le Vermont est communément considéré comme abolitionniste même si en fait la peine de mort est toujours prévue pour trahison.
 </t>
         </is>
       </c>
